--- a/referencias/Dados Aplicacao.xlsx
+++ b/referencias/Dados Aplicacao.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\leng3_2017_grupo3\referencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sony\Documents\leng3_2017_grupo3\referencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11520" tabRatio="626" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11520" tabRatio="626" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armazem" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="86">
   <si>
     <t>#</t>
   </si>
@@ -128,13 +128,321 @@
   <si>
     <t>NIF</t>
   </si>
+  <si>
+    <t>AGV: linha 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">desig = Tipo1; autonomia = 8; tCarga = 2; pMax = 100; alturaM = 10 </t>
+  </si>
+  <si>
+    <t>KJ53</t>
+  </si>
+  <si>
+    <t>gabriel</t>
+  </si>
+  <si>
+    <t>andre</t>
+  </si>
+  <si>
+    <t>mariana</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>jorge</t>
+  </si>
+  <si>
+    <t>ines</t>
+  </si>
+  <si>
+    <t>manuel</t>
+  </si>
+  <si>
+    <t>rodrigo</t>
+  </si>
+  <si>
+    <t>guilherme</t>
+  </si>
+  <si>
+    <t>otavia</t>
+  </si>
+  <si>
+    <t>Funcionario: linha1</t>
+  </si>
+  <si>
+    <t>AR30</t>
+  </si>
+  <si>
+    <t>41.17, -8,59</t>
+  </si>
+  <si>
+    <t>ARMLENG3</t>
+  </si>
+  <si>
+    <t>Funcionario: linha 2</t>
+  </si>
+  <si>
+    <t>4200-072</t>
+  </si>
+  <si>
+    <t>Aprovada</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Funcionario: linha 3</t>
+  </si>
+  <si>
+    <t>ent1</t>
+  </si>
+  <si>
+    <t>gitsubishi inc.</t>
+  </si>
+  <si>
+    <t>gitsubishi</t>
+  </si>
+  <si>
+    <t>gitsubishi@gitsubishi.com</t>
+  </si>
+  <si>
+    <t>Rua Dr. António Bernardino de Almeida, nº 431, 4200-072, Porto</t>
+  </si>
+  <si>
+    <t>leite</t>
+  </si>
+  <si>
+    <t>ovo</t>
+  </si>
+  <si>
+    <t>fruta</t>
+  </si>
+  <si>
+    <t>parafusos</t>
+  </si>
+  <si>
+    <t>porcas</t>
+  </si>
+  <si>
+    <t>alface</t>
+  </si>
+  <si>
+    <t>tomate</t>
+  </si>
+  <si>
+    <t>chouriços</t>
+  </si>
+  <si>
+    <t>smartphones</t>
+  </si>
+  <si>
+    <t>aspiradores</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">leite </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a vaca feliz</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ovos </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>galinha que canta</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">fruta </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pomar saudável</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">parafusos </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sempre fixo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">aspiradores </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tudo limpo</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">porcas </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ferragens &amp; ca</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">alface </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pomar saudável</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">tomate </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pomar saudável</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">chouriços </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>enchidos da ericeira</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">smartphones </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ching-ling</t>
+    </r>
+  </si>
+  <si>
+    <t>líquido</t>
+  </si>
+  <si>
+    <t>sólido</t>
+  </si>
+  <si>
+    <t>s11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>Planta</t>
+  </si>
+  <si>
+    <t>50;10;20</t>
+  </si>
+  <si>
+    <t>EA1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -159,13 +467,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -182,115 +494,116 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="AGV"/>
-    <tableColumn id="3" name="Chefes"/>
-    <tableColumn id="4" name="CoodUn"/>
-    <tableColumn id="5" name="CoordGPS"/>
-    <tableColumn id="6" name="descr"/>
-    <tableColumn id="7" name="diretor"/>
-    <tableColumn id="8" name="endPostal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela2" displayName="Tabela2" ref="A1:I2" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="AGV"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Chefes"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="CoodUn"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="CoordGPS"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="descr"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="diretor"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="endPostal"/>
+    <tableColumn id="9" xr3:uid="{0636CD7A-E530-4B82-AF45-2F4DECE96BE9}" name="Planta"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tabela29" displayName="Tabela29" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela29" displayName="Tabela29" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="Designação"/>
-    <tableColumn id="3" name="Ponto A"/>
-    <tableColumn id="4" name="Ponto B"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Designação"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Ponto A"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Ponto B"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tabela210" displayName="Tabela210" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tabela210" displayName="Tabela210" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="Designação"/>
-    <tableColumn id="3" name="Ponto A"/>
-    <tableColumn id="4" name="Ponto B"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Designação"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Ponto A"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Ponto B"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tabela24" displayName="Tabela24" ref="A1:C2" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A1:C2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabela24" displayName="Tabela24" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="Designação"/>
-    <tableColumn id="3" name="Estado"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Designação"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Estado"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Tabela213" displayName="Tabela213" ref="A1:C11" totalsRowShown="0">
-  <autoFilter ref="A1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tabela213" displayName="Tabela213" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="ID"/>
-    <tableColumn id="3" name="Nome"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="ID"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Nome"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Tabela214" displayName="Tabela214" ref="A1:D2" totalsRowShown="0">
-  <autoFilter ref="A1:D2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tabela214" displayName="Tabela214" ref="A1:D2" totalsRowShown="0">
+  <autoFilter ref="A1:D2" xr:uid="{00000000-0009-0000-0100-00000D000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="Cat"/>
-    <tableColumn id="3" name="dAquisição"/>
-    <tableColumn id="4" name="nSerie"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Cat"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="dAquisição"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="nSerie"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Tabela216" displayName="Tabela216" ref="A1:I11" totalsRowShown="0">
-  <autoFilter ref="A1:I11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabela216" displayName="Tabela216" ref="A1:I11" totalsRowShown="0">
+  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0100-00000F000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="Aprovação"/>
-    <tableColumn id="3" name="Classe"/>
-    <tableColumn id="4" name="CodEnt"/>
-    <tableColumn id="5" name="dBrv"/>
-    <tableColumn id="6" name="dComp"/>
-    <tableColumn id="7" name="dVal"/>
-    <tableColumn id="9" name="estado"/>
-    <tableColumn id="8" name="pMax"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Aprovação"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Classe"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="CodEnt"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="dBrv"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="dComp"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="dVal"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="estado"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="pMax"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Tabela217" displayName="Tabela217" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabela217" displayName="Tabela217" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{00000000-0009-0000-0100-000010000000}"/>
   <tableColumns count="8">
-    <tableColumn id="1" name="#"/>
-    <tableColumn id="2" name="Gestor"/>
-    <tableColumn id="3" name="Codigo"/>
-    <tableColumn id="4" name="D Comercial"/>
-    <tableColumn id="5" name="D Comum"/>
-    <tableColumn id="6" name="End Eletronico"/>
-    <tableColumn id="7" name="End Postal"/>
-    <tableColumn id="8" name="NIF"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="#"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Gestor"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Codigo"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="D Comercial"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0700-000005000000}" name="D Comum"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0700-000006000000}" name="End Eletronico" dataCellStyle="Hiperligação"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0700-000007000000}" name="End Postal"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0700-000008000000}" name="NIF"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -592,20 +905,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="8" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" customWidth="1"/>
+    <col min="8" max="8" width="10.26953125" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -630,10 +950,37 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -646,21 +993,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="4" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -674,9 +1021,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -688,21 +1044,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="3" max="4" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="4" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,9 +1072,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -730,20 +1095,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,6 +1117,11 @@
       </c>
       <c r="C1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -763,20 +1133,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" customWidth="1"/>
+    <col min="2" max="3" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -787,54 +1157,114 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -846,22 +1276,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="56" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -875,9 +1305,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1">
+        <v>37906</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -889,24 +1328,25 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="9" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="26.7265625" customWidth="1"/>
+    <col min="7" max="9" width="10.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,53 +1375,253 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F2" t="s">
+        <v>69</v>
+      </c>
+      <c r="G2" s="1">
+        <v>43385</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="1">
+        <v>43405</v>
+      </c>
+      <c r="H3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="1">
+        <v>43348</v>
+      </c>
+      <c r="H4" t="s">
+        <v>80</v>
+      </c>
+      <c r="I4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="1">
+        <v>43255</v>
+      </c>
+      <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="1">
+        <v>43226</v>
+      </c>
+      <c r="H9" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="1">
+        <v>43293</v>
+      </c>
+      <c r="H10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11">
         <v>10</v>
       </c>
     </row>
@@ -994,25 +1634,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="3" width="10.28515625" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="4" max="4" width="13.7265625" customWidth="1"/>
+    <col min="5" max="5" width="12.1796875" customWidth="1"/>
+    <col min="6" max="6" width="22.6328125" customWidth="1"/>
+    <col min="7" max="7" width="54.36328125" customWidth="1"/>
+    <col min="8" max="8" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,15 +1679,39 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2">
+        <v>123456789</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{525BD8B2-4BFF-4A01-A7C2-803F1A67081C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/referencias/Dados Aplicacao.xlsx
+++ b/referencias/Dados Aplicacao.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sony\Documents\leng3_2017_grupo3\referencias\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\André\Documents\leng3_2017_grupo3\referencias\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11520" tabRatio="626" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11520" tabRatio="626" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Armazem" sheetId="1" r:id="rId1"/>
@@ -415,10 +415,10 @@
     <t>Planta</t>
   </si>
   <si>
-    <t>50;10;20</t>
-  </si>
-  <si>
     <t>EA1</t>
+  </si>
+  <si>
+    <t>50;20;10</t>
   </si>
 </sst>
 </file>
@@ -908,24 +908,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="11.36328125" customWidth="1"/>
-    <col min="3" max="3" width="17.36328125" customWidth="1"/>
-    <col min="4" max="4" width="10.26953125" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" customWidth="1"/>
-    <col min="8" max="8" width="10.26953125" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -954,7 +954,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -980,7 +980,7 @@
         <v>50</v>
       </c>
       <c r="I2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -996,18 +996,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1021,12 +1021,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2">
         <v>50</v>
@@ -1051,14 +1051,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
-    <col min="3" max="4" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="4" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1102,13 +1102,13 @@
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" customWidth="1"/>
-    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>81</v>
       </c>
@@ -1140,13 +1140,13 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="3" width="10.26953125" customWidth="1"/>
+    <col min="2" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1283,15 +1283,15 @@
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="56" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1305,7 +1305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1335,18 +1335,18 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="26.7265625" customWidth="1"/>
-    <col min="7" max="9" width="10.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="9" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1453,7 +1453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1501,7 +1501,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1602,7 +1602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1641,19 +1641,19 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="4" max="4" width="13.7265625" customWidth="1"/>
-    <col min="5" max="5" width="12.1796875" customWidth="1"/>
-    <col min="6" max="6" width="22.6328125" customWidth="1"/>
-    <col min="7" max="7" width="54.36328125" customWidth="1"/>
-    <col min="8" max="8" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.5703125" customWidth="1"/>
+    <col min="7" max="7" width="54.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>52</v>
       </c>
